--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1618245.371211406</v>
+        <v>-1621105.203446675</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,70 +659,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>152.0747039460365</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>67.76654635343957</v>
+      </c>
+      <c r="T2" t="n">
+        <v>97.40599082265507</v>
+      </c>
+      <c r="U2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="F2" t="n">
+      <c r="V2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="G2" t="n">
-        <v>13.09783323005805</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>17.727471611456</v>
       </c>
       <c r="T3" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>58.88925452123836</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>11.92106275540846</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>40.29488349902608</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>100.2461425695689</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.42254329489923</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724367</v>
+        <v>34.66253762724398</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926216</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4877993650491</v>
       </c>
       <c r="U5" t="n">
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>88.73562238759558</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361377</v>
+        <v>382.6612299361364</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>16.17423290751442</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.99985954238389</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.059033344203</v>
       </c>
       <c r="T6" t="n">
         <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>52.22440840167055</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>43.32130647461327</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>225.7939473685539</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.1152538431691</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>7.823783498848421</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>101.0628932818872</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1215,19 +1215,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>107.9150599581282</v>
       </c>
       <c r="T9" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>72.51810788474572</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>215.46262471363</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>111.940454408016</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098626</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>30.85302310518264</v>
+        <v>99.97427419833657</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892457</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>101.1785556175222</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.6761271205435</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>21.69718571885174</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>80.11763046889845</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>152.3242997534466</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487952</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C2" t="n">
-        <v>407.0717515820916</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>407.0717515820916</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656067</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4328,52 +4328,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>681.6512917426139</v>
       </c>
       <c r="T2" t="n">
-        <v>750.10234866528</v>
+        <v>583.2614020227603</v>
       </c>
       <c r="U2" t="n">
-        <v>750.10234866528</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="V2" t="n">
-        <v>750.10234866528</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487952</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487952</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487952</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311.778683156312</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="C3" t="n">
-        <v>311.778683156312</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D3" t="n">
-        <v>311.778683156312</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
         <v>15.0020469733056</v>
@@ -4410,16 +4410,16 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
@@ -4428,31 +4428,31 @@
         <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>732.1958116840115</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487952</v>
+        <v>542.7760266675266</v>
       </c>
       <c r="U3" t="n">
-        <v>501.1984681727968</v>
+        <v>353.3562416510417</v>
       </c>
       <c r="V3" t="n">
-        <v>501.1984681727968</v>
+        <v>353.3562416510417</v>
       </c>
       <c r="W3" t="n">
-        <v>501.1984681727968</v>
+        <v>353.3562416510417</v>
       </c>
       <c r="X3" t="n">
-        <v>501.1984681727968</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="Y3" t="n">
-        <v>311.778683156312</v>
+        <v>163.9364566345569</v>
       </c>
     </row>
     <row r="4">
@@ -4492,37 +4492,37 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>55.70394949757437</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>55.70394949757437</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>55.70394949757437</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>55.70394949757437</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>55.70394949757437</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
         <v>15.0020469733056</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>502.6853504000942</v>
+        <v>408.3721212810461</v>
       </c>
       <c r="C5" t="n">
-        <v>502.6853504000942</v>
+        <v>408.3721212810461</v>
       </c>
       <c r="D5" t="n">
-        <v>144.4196517933437</v>
+        <v>50.10642267429563</v>
       </c>
       <c r="E5" t="n">
-        <v>144.4196517933437</v>
+        <v>50.10642267429563</v>
       </c>
       <c r="F5" t="n">
-        <v>43.16092192509226</v>
+        <v>43.16092192509215</v>
       </c>
       <c r="G5" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="J5" t="n">
-        <v>93.3858082712145</v>
+        <v>93.38580827121405</v>
       </c>
       <c r="K5" t="n">
-        <v>238.204646223583</v>
+        <v>238.2046462235821</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190616</v>
+        <v>454.7669823190598</v>
       </c>
       <c r="M5" t="n">
-        <v>727.403745764305</v>
+        <v>727.4037457643022</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453886</v>
+        <v>1009.065865453882</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831927</v>
+        <v>1261.696156831923</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.80926485577</v>
+        <v>1442.809264855765</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744551</v>
+        <v>1530.644919744545</v>
       </c>
       <c r="R5" t="n">
-        <v>1495.632255474608</v>
+        <v>1495.632255474602</v>
       </c>
       <c r="S5" t="n">
-        <v>1495.632255474608</v>
+        <v>1350.796251643671</v>
       </c>
       <c r="T5" t="n">
-        <v>1495.632255474608</v>
+        <v>1138.182312891096</v>
       </c>
       <c r="U5" t="n">
-        <v>1241.980500555196</v>
+        <v>884.5305579716844</v>
       </c>
       <c r="V5" t="n">
-        <v>1241.980500555196</v>
+        <v>794.8986161660323</v>
       </c>
       <c r="W5" t="n">
-        <v>889.2118452850818</v>
+        <v>794.8986161660323</v>
       </c>
       <c r="X5" t="n">
-        <v>889.2118452850818</v>
+        <v>794.8986161660323</v>
       </c>
       <c r="Y5" t="n">
-        <v>502.6853504000942</v>
+        <v>408.3721212810461</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>878.6131659998919</v>
+        <v>221.4035366735072</v>
       </c>
       <c r="C6" t="n">
-        <v>704.1601367187649</v>
+        <v>46.95050739238022</v>
       </c>
       <c r="D6" t="n">
-        <v>555.2257270575136</v>
+        <v>46.95050739238022</v>
       </c>
       <c r="E6" t="n">
-        <v>395.9882720520581</v>
+        <v>46.95050739238022</v>
       </c>
       <c r="F6" t="n">
-        <v>395.9882720520581</v>
+        <v>46.95050739238022</v>
       </c>
       <c r="G6" t="n">
-        <v>258.8140524589606</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="H6" t="n">
-        <v>258.8140524589606</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="I6" t="n">
-        <v>258.8140524589606</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="J6" t="n">
-        <v>277.383320586822</v>
+        <v>49.18216652275208</v>
       </c>
       <c r="K6" t="n">
-        <v>387.2759822117733</v>
+        <v>159.0748281477029</v>
       </c>
       <c r="L6" t="n">
-        <v>581.3627685184393</v>
+        <v>353.1616144543684</v>
       </c>
       <c r="M6" t="n">
-        <v>827.2097618282903</v>
+        <v>599.0086077642187</v>
       </c>
       <c r="N6" t="n">
-        <v>1093.97223842624</v>
+        <v>865.7710843621682</v>
       </c>
       <c r="O6" t="n">
-        <v>1315.787993034611</v>
+        <v>1087.586838970537</v>
       </c>
       <c r="P6" t="n">
-        <v>1474.481625486914</v>
+        <v>1246.28047142284</v>
       </c>
       <c r="Q6" t="n">
-        <v>1530.644919744551</v>
+        <v>1302.443765680477</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.644919744551</v>
+        <v>1251.938857051807</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.644919744551</v>
+        <v>1107.434782966753</v>
       </c>
       <c r="T6" t="n">
-        <v>1334.732538930158</v>
+        <v>911.5224021523601</v>
       </c>
       <c r="U6" t="n">
-        <v>1334.732538930158</v>
+        <v>683.4011921666628</v>
       </c>
       <c r="V6" t="n">
-        <v>1099.580430698415</v>
+        <v>683.4011921666628</v>
       </c>
       <c r="W6" t="n">
-        <v>1099.580430698415</v>
+        <v>429.1638354384611</v>
       </c>
       <c r="X6" t="n">
-        <v>1099.580430698415</v>
+        <v>429.1638354384611</v>
       </c>
       <c r="Y6" t="n">
-        <v>1046.82850301996</v>
+        <v>221.4035366735072</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="C7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713196</v>
+        <v>51.4905488171316</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363473</v>
+        <v>108.1125511363466</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055968</v>
+        <v>171.0707966055957</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221333</v>
+        <v>240.3895616221319</v>
       </c>
       <c r="O7" t="n">
-        <v>284.103571764522</v>
+        <v>284.1035717645203</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354659</v>
+        <v>302.4464881354638</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354659</v>
+        <v>258.6875927065615</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354659</v>
+        <v>258.6875927065615</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354659</v>
+        <v>258.6875927065615</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354659</v>
+        <v>258.6875927065615</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354659</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="V7" t="n">
-        <v>302.4464881354659</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="W7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="X7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.61289839489102</v>
+        <v>30.61289839489091</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.517173786454</v>
+        <v>431.267855483897</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.554656846042</v>
+        <v>62.30533854348529</v>
       </c>
       <c r="D8" t="n">
-        <v>878.2889582392918</v>
+        <v>62.30533854348529</v>
       </c>
       <c r="E8" t="n">
-        <v>878.2889582392918</v>
+        <v>62.30533854348529</v>
       </c>
       <c r="F8" t="n">
-        <v>467.3030534496842</v>
+        <v>55.35983779428182</v>
       </c>
       <c r="G8" t="n">
-        <v>51.27200815309146</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711894</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135171</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545601</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172452</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642789</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056568</v>
+        <v>1934.241441055024</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.285829056568</v>
+        <v>1934.241441055024</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.285829056568</v>
+        <v>1934.241441055024</v>
       </c>
       <c r="W8" t="n">
-        <v>1605.517173786454</v>
+        <v>1581.47278578491</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.517173786454</v>
+        <v>1208.00702752383</v>
       </c>
       <c r="Y8" t="n">
-        <v>1605.517173786454</v>
+        <v>817.8676955480188</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>904.8600091750928</v>
+        <v>364.3567837923352</v>
       </c>
       <c r="C9" t="n">
-        <v>730.4069798939659</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="D9" t="n">
-        <v>581.4725702327146</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="E9" t="n">
-        <v>422.235115227259</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562348</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104406</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1734.238298972668</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1625.233187903851</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>1430.522866377827</v>
       </c>
       <c r="U9" t="n">
-        <v>1400.563316948358</v>
+        <v>1202.421276511091</v>
       </c>
       <c r="V9" t="n">
-        <v>1400.563316948358</v>
+        <v>1202.421276511091</v>
       </c>
       <c r="W9" t="n">
-        <v>1146.325960220157</v>
+        <v>948.1839197828899</v>
       </c>
       <c r="X9" t="n">
-        <v>1146.325960220157</v>
+        <v>740.3324195773571</v>
       </c>
       <c r="Y9" t="n">
-        <v>1073.075346195161</v>
+        <v>532.5721208124032</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="C10" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981553</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927341</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377472</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033673</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126813</v>
+        <v>411.1248508126831</v>
       </c>
       <c r="S10" t="n">
-        <v>411.1248508126813</v>
+        <v>411.1248508126831</v>
       </c>
       <c r="T10" t="n">
-        <v>411.1248508126813</v>
+        <v>411.1248508126831</v>
       </c>
       <c r="U10" t="n">
-        <v>411.1248508126813</v>
+        <v>411.1248508126831</v>
       </c>
       <c r="V10" t="n">
-        <v>411.1248508126813</v>
+        <v>156.4403626067962</v>
       </c>
       <c r="W10" t="n">
-        <v>411.1248508126813</v>
+        <v>156.4403626067962</v>
       </c>
       <c r="X10" t="n">
-        <v>193.4858359504288</v>
+        <v>156.4403626067962</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.4858359504288</v>
+        <v>43.36919653809316</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>962.6357307816191</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C13" t="n">
-        <v>793.6995478537142</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D13" t="n">
-        <v>643.5829084413784</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E13" t="n">
-        <v>495.6698148589853</v>
+        <v>194.800778399827</v>
       </c>
       <c r="F13" t="n">
-        <v>348.7798673610749</v>
+        <v>194.800778399827</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611859</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9069687101821</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>424.993875127789</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>278.1039276298786</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>639.6425904082687</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,16 +6072,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,16 +6227,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.432392194325</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.342122433612</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2527.96527192868</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.96527192868</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.5645865368208</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>483.6514929544277</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6446,28 +6446,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,16 +7008,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
         <v>634.5603720565526</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7087,19 +7087,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,19 +7254,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380738</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311332</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979288</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.34019938252</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973198</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,19 +7582,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>213.198187824971</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>91.00926683661353</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.64367339871029</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
-        <v>161.715381551093</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,31 +22744,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>120.9013068552819</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390156</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>134.6711151870862</v>
+        <v>65.54986409393227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>64.34558267474668</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.15585306139384</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>126.9182872993606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>65.30341755403279</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.8601746357975</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1286504.493637068</v>
+        <v>1286504.493637067</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1286504.493637067</v>
+        <v>1286504.493637068</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1286504.493637068</v>
+        <v>1286504.493637067</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1286504.493637068</v>
+        <v>1286504.493637067</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1286504.493637068</v>
+        <v>1286504.493637067</v>
       </c>
     </row>
     <row r="12">
@@ -26326,7 +26326,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26350,7 +26350,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262497</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996491</v>
+        <v>216004.0468996474</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960628</v>
+        <v>167084.5112960656</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854464</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838244</v>
+        <v>50221.67010838207</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064611</v>
+        <v>59784.02116064681</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.3805515976</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.053746812</v>
+        <v>221112.0537468124</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26433,28 +26433,28 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189199</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.583971892</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="L4" t="n">
+        <v>24037.44323498544</v>
+      </c>
+      <c r="M4" t="n">
+        <v>24037.44323498551</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24037.44323498545</v>
+      </c>
+      <c r="O4" t="n">
         <v>24037.44323498546</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24037.44323498548</v>
-      </c>
-      <c r="N4" t="n">
-        <v>24037.44323498547</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24037.44323498549</v>
       </c>
       <c r="P4" t="n">
         <v>24037.44323498545</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790098</v>
+        <v>72511.97598790086</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726193.357203426</v>
+        <v>-726553.4402191436</v>
       </c>
       <c r="C6" t="n">
-        <v>-365945.7669081125</v>
+        <v>-365945.7669081111</v>
       </c>
       <c r="D6" t="n">
-        <v>-282804.2735145831</v>
+        <v>-282804.2735145856</v>
       </c>
       <c r="E6" t="n">
-        <v>-577361.6664243133</v>
+        <v>-577396.4043497476</v>
       </c>
       <c r="F6" t="n">
-        <v>24081.54114995204</v>
+        <v>24046.80322451632</v>
       </c>
       <c r="G6" t="n">
-        <v>24081.54114995198</v>
+        <v>24046.80322451626</v>
       </c>
       <c r="H6" t="n">
-        <v>24081.541149952</v>
+        <v>24046.80322451633</v>
       </c>
       <c r="I6" t="n">
-        <v>24081.54114995197</v>
+        <v>24046.80322451633</v>
       </c>
       <c r="J6" t="n">
-        <v>-24983.40357859265</v>
+        <v>-25018.14150402835</v>
       </c>
       <c r="K6" t="n">
-        <v>-26140.12895843046</v>
+        <v>-26174.86688386576</v>
       </c>
       <c r="L6" t="n">
-        <v>-43303.27052329737</v>
+        <v>-43303.27052329805</v>
       </c>
       <c r="M6" t="n">
-        <v>-140665.6299142494</v>
+        <v>-140665.6299142489</v>
       </c>
       <c r="N6" t="n">
+        <v>16480.75063734878</v>
+      </c>
+      <c r="O6" t="n">
         <v>16480.75063734874</v>
       </c>
-      <c r="O6" t="n">
-        <v>16480.75063734876</v>
-      </c>
       <c r="P6" t="n">
-        <v>16480.75063734881</v>
+        <v>16480.7506373488</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836607</v>
+        <v>716.4483122836594</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361377</v>
+        <v>382.6612299361364</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261646</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.978371370756</v>
+        <v>167.9783713707546</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540234</v>
+        <v>137.2623522540257</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698177</v>
+        <v>195.1356427698163</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900255</v>
+        <v>159.4537267900282</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698177</v>
+        <v>195.1356427698163</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900255</v>
+        <v>159.4537267900282</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734836</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698177</v>
+        <v>195.1356427698163</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900255</v>
+        <v>159.4537267900282</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>116.0378902335517</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,25 +27461,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>132.0427730794936</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681213</v>
+        <v>7.884010625681197</v>
       </c>
       <c r="U3" t="n">
-        <v>166.9745138888526</v>
+        <v>38.33818124377088</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715744</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,13 +27555,13 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>246.2281148375649</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>306.6299031721425</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>309.9780130577771</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476437</v>
+        <v>99.43720189476456</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926215</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4877993650491</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>239.0166360825393</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719915871</v>
+        <v>3.576708719917235</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>119.6282444896521</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075475</v>
+        <v>97.35224439075478</v>
       </c>
       <c r="I6" t="n">
-        <v>46.4646512129553</v>
+        <v>46.4646512129554</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238372</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>153.4582873756338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037443</v>
+        <v>116.5978353037444</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037925</v>
+        <v>35.65413415037941</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461308</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106943</v>
+        <v>119.2023528106944</v>
       </c>
       <c r="S7" t="n">
         <v>201.5013289443858</v>
@@ -27828,13 +27828,13 @@
         <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>60.4546116621386</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>17.40774449342194</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>296.5030212573346</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>107.0093645877166</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>29.65995393517096</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>133.1645878925586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28068,16 +28068,16 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>10.24703067540719</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>106.6441989440788</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29035,70 +29035,70 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="44">
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88019422023582</v>
+        <v>2.880194220235815</v>
       </c>
       <c r="H5" t="n">
-        <v>29.4967890579901</v>
+        <v>29.49678905799005</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756415</v>
+        <v>111.0386876756414</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997401</v>
+        <v>244.4528841997397</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423224</v>
+        <v>366.3715055423218</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098645</v>
+        <v>454.5162494098637</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739832</v>
+        <v>505.7369033739824</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022283</v>
+        <v>513.9202552022274</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247584</v>
+        <v>485.2803239247575</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126865</v>
+        <v>414.1755291126858</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004911</v>
+        <v>311.0285736004906</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868885</v>
+        <v>180.9230001868881</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362381</v>
+        <v>65.6324257936237</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908231</v>
+        <v>12.60805019908229</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188655</v>
+        <v>0.2304155376188651</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5410397660441</v>
+        <v>1.541039766044098</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574171</v>
+        <v>14.88319984574168</v>
       </c>
       <c r="I6" t="n">
-        <v>53.0577287870447</v>
+        <v>53.0577287870446</v>
       </c>
       <c r="J6" t="n">
-        <v>145.594463159456</v>
+        <v>145.5944631594558</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844107</v>
+        <v>248.8441274844103</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754965</v>
+        <v>334.6016386754959</v>
       </c>
       <c r="M6" t="n">
-        <v>390.464330194595</v>
+        <v>390.4643301945944</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519698</v>
+        <v>400.7987591519691</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306768</v>
+        <v>366.6525622306762</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510002</v>
+        <v>294.2710058509997</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.712374346261</v>
+        <v>196.7123743462606</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158024</v>
+        <v>95.67964442158006</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963492</v>
+        <v>28.62413775963487</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21147168857249</v>
+        <v>6.211471688572479</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344803</v>
+        <v>0.1013841951344802</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970535</v>
+        <v>1.291955972970533</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513804</v>
+        <v>11.48666310513802</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351394</v>
+        <v>38.85263962351387</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901686</v>
+        <v>91.34128728901671</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505767</v>
+        <v>150.1017939505765</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178195</v>
+        <v>192.0786180178191</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902813</v>
+        <v>202.5199712902809</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273913</v>
+        <v>197.7044990273909</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522354</v>
+        <v>182.6121042522351</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036363</v>
+        <v>156.2562024036361</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548328</v>
+        <v>108.1836951548326</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647516</v>
+        <v>58.09103856647506</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258651</v>
+        <v>22.51526909258647</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874105</v>
+        <v>5.520175520874095</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839294</v>
+        <v>0.07047032579839281</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>430.4001870301144</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32792,19 +32792,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,7 +33023,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.0290152085043</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,28 +33497,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>195.7502366106279</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>194.5189324111251</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33974,13 +33974,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>368.6279838366855</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305385</v>
+        <v>63.40697967305343</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973419</v>
+        <v>146.2816544973413</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398772</v>
+        <v>218.7498344398765</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467105</v>
+        <v>275.3906701467097</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056374</v>
+        <v>284.5071916056365</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030716</v>
+        <v>255.1821125030708</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574169</v>
+        <v>182.9425333574162</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.7228837260416</v>
+        <v>88.72288372604109</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278932</v>
+        <v>18.75683649278906</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100517</v>
+        <v>111.0026885100513</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956223</v>
+        <v>196.0472588956217</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725767</v>
+        <v>248.330296272576</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686365</v>
+        <v>269.4570470686358</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862324</v>
+        <v>224.0563177862317</v>
       </c>
       <c r="P6" t="n">
-        <v>160.29659843667</v>
+        <v>160.2965984366695</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023947</v>
+        <v>56.73060026023913</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004135</v>
+        <v>21.0885357800411</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658119</v>
+        <v>57.19394173658085</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267624</v>
+        <v>63.59418734267587</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215809</v>
+        <v>70.01895456215775</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039262</v>
+        <v>44.15556580039228</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448872</v>
+        <v>18.52819835448847</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>291.8458072502402</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36671,7 +36671,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.34951124454038</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>61.77582919629761</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>55.9645526312509</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37622,13 +37622,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>237.2862717533522</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
